--- a/Table/Enum/Enum.xlsx
+++ b/Table/Enum/Enum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unreal\ProjectPT\Table\Enum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD094E00-DC02-4CA8-B473-4B9A94FFF017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428434FD-1039-4CF5-A876-F88B4771BE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22410" yWindow="3045" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>!Enum</t>
   </si>
@@ -112,6 +112,38 @@
   <si>
     <t>어둠2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CollisionType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>충돌 타입</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RayTrace</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Capsule</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Box</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>캡슐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>박스</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -460,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -623,6 +655,56 @@
         <v>20</v>
       </c>
     </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Table/Enum/Enum.xlsx
+++ b/Table/Enum/Enum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unreal\ProjectPT\Table\Enum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428434FD-1039-4CF5-A876-F88B4771BE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CF539B-095B-45AD-A7FF-2A79392E65CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22410" yWindow="3045" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22065" yWindow="3390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>!Enum</t>
   </si>
@@ -143,6 +143,14 @@
   </si>
   <si>
     <t>박스</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sphere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>구형</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -492,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -684,11 +692,11 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
@@ -696,12 +704,24 @@
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>31</v>
       </c>
     </row>

--- a/Table/Enum/Enum.xlsx
+++ b/Table/Enum/Enum.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unreal\ProjectPT\Table\Enum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CF539B-095B-45AD-A7FF-2A79392E65CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEC6021-4D55-4FD9-A631-56680958F4C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22065" yWindow="3390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>!Enum</t>
   </si>
@@ -152,6 +152,30 @@
   <si>
     <t>구형</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedDotType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mail</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inventory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!End</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -500,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -725,6 +749,40 @@
         <v>31</v>
       </c>
     </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Table/Enum/Enum.xlsx
+++ b/Table/Enum/Enum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unreal\ProjectPT\Table\Enum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEC6021-4D55-4FD9-A631-56680958F4C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04BF8DB-86BE-429A-9DEF-D482EA448291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21840" yWindow="3000" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
   <si>
     <t>!Enum</t>
   </si>
@@ -175,6 +175,14 @@
   </si>
   <si>
     <t>인벤토리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Event</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -524,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -776,11 +784,22 @@
       <c r="C23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D23" t="s">
-        <v>38</v>
-      </c>
       <c r="E23" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Table/Enum/Enum.xlsx
+++ b/Table/Enum/Enum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unreal\ProjectPT\Table\Enum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04BF8DB-86BE-429A-9DEF-D482EA448291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8A838E-3120-40CE-9CEE-672A78F68095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21840" yWindow="3000" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24465" yWindow="1275" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
   <si>
     <t>!Enum</t>
   </si>
@@ -184,6 +184,26 @@
   <si>
     <t>Event</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Potion</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scroll</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크롤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>포션</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -532,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -802,6 +822,42 @@
         <v>40</v>
       </c>
     </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Table/Enum/Enum.xlsx
+++ b/Table/Enum/Enum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unreal\ProjectPT\Table\Enum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8A838E-3120-40CE-9CEE-672A78F68095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7197343A-CB91-42C6-8D95-ADD009EBC61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24465" yWindow="1275" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22080" yWindow="1305" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
   <si>
     <t>!Enum</t>
   </si>
@@ -203,6 +203,14 @@
   </si>
   <si>
     <t>포션</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전부</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -552,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD29"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -837,11 +845,11 @@
         <v>1</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
@@ -849,12 +857,24 @@
         <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>45</v>
       </c>
     </row>

--- a/Table/Enum/Enum.xlsx
+++ b/Table/Enum/Enum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unreal\ProjectPT\Table\Enum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7197343A-CB91-42C6-8D95-ADD009EBC61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8904C84B-9B41-4EFE-BFFA-F59E83DE5466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-22080" yWindow="1305" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
   <si>
     <t>!Enum</t>
   </si>
@@ -211,6 +211,34 @@
   </si>
   <si>
     <t>전부</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grade</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Legend</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>노멀</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>레어</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>레전드</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -560,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -878,6 +906,54 @@
         <v>45</v>
       </c>
     </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Table/Enum/Enum.xlsx
+++ b/Table/Enum/Enum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unreal\ProjectPT\Table\Enum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8904C84B-9B41-4EFE-BFFA-F59E83DE5466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3659EB9D-4E86-4258-9D51-A83BAEC654A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22080" yWindow="1305" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25995" yWindow="645" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
   <si>
     <t>!Enum</t>
   </si>
@@ -239,6 +239,26 @@
   </si>
   <si>
     <t>레전드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BindType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀속</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -588,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -954,6 +974,42 @@
         <v>55</v>
       </c>
     </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Table/Enum/Enum.xlsx
+++ b/Table/Enum/Enum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unreal\ProjectPT\Table\Enum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3659EB9D-4E86-4258-9D51-A83BAEC654A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04390DEC-FE43-4999-AC5D-F9CA3D0680ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25995" yWindow="645" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24615" yWindow="1935" windowWidth="21600" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="73">
   <si>
     <t>!Enum</t>
   </si>
@@ -259,6 +259,54 @@
   </si>
   <si>
     <t>귀속</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ServerMail</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>System</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 메일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MailType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventOpenType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>콘텐츠 오픈</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConentsOpen</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContentsType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -608,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1010,6 +1058,108 @@
         <v>60</v>
       </c>
     </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B49" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Table/Enum/Enum.xlsx
+++ b/Table/Enum/Enum.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unreal\ProjectPT\Table\Enum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04390DEC-FE43-4999-AC5D-F9CA3D0680ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD872DE-5713-4893-97A3-D97BD574918A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24615" yWindow="1935" windowWidth="21600" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1395" yWindow="1995" windowWidth="21600" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="76">
   <si>
     <t>!Enum</t>
   </si>
@@ -307,6 +307,18 @@
   </si>
   <si>
     <t>전투</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>InteractionType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -656,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1160,6 +1172,30 @@
       <c r="D50" s="2"/>
       <c r="E50" s="3"/>
     </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B52" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Table/Enum/Enum.xlsx
+++ b/Table/Enum/Enum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unreal\ProjectPT\Table\Enum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD872DE-5713-4893-97A3-D97BD574918A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251D95C7-7A5C-4ABF-9B49-851B36D0C62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="1995" windowWidth="21600" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23115" yWindow="390" windowWidth="21600" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="83">
   <si>
     <t>!Enum</t>
   </si>
@@ -319,6 +319,34 @@
   </si>
   <si>
     <t>상점</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShopType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sell</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매 샵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매 샵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>수리 샵</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -668,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1196,6 +1224,54 @@
         <v>75</v>
       </c>
     </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B56" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B57" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Table/Enum/Enum.xlsx
+++ b/Table/Enum/Enum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unreal\ProjectPT\Table\Enum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251D95C7-7A5C-4ABF-9B49-851B36D0C62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC27ACE-F50D-4FCD-A7E9-C16706D90872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23115" yWindow="390" windowWidth="21600" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="88">
   <si>
     <t>!Enum</t>
   </si>
@@ -347,6 +347,26 @@
   </si>
   <si>
     <t>수리 샵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CurrencyType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diamond</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이아몬드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -696,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="L47" sqref="L47"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1272,6 +1292,42 @@
         <v>82</v>
       </c>
     </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B60" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B61" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
